--- a/Parameters/demand_parameters.xlsx
+++ b/Parameters/demand_parameters.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/hert5576_ox_ac_uk/Documents/CCG/GEOH2/ETHCollab/HydrogenRuns/v15_2024-01-03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{84378572-8905-8D44-9C65-4140DD2C075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2420AF62-41FA-4BBC-8BD4-6EF53B3CC432}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2859C93-1867-4D14-BDF3-EC6830255C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand centers" sheetId="2" r:id="rId1"/>
+    <sheet name="Generation centers" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Annual demand [kg/a]</t>
   </si>
   <si>
-    <t>NH3</t>
-  </si>
-  <si>
     <t>Demand center</t>
   </si>
   <si>
@@ -55,7 +52,100 @@
     <t>Demand state</t>
   </si>
   <si>
-    <t>Lüderitz</t>
+    <t>Livingstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirundu </t>
+  </si>
+  <si>
+    <t>Chililabombwe</t>
+  </si>
+  <si>
+    <t>CuAnode</t>
+  </si>
+  <si>
+    <t>CuCathode</t>
+  </si>
+  <si>
+    <t>CuConcentrate</t>
+  </si>
+  <si>
+    <t>Generation center</t>
+  </si>
+  <si>
+    <t>Annual capacity [kg/a]</t>
+  </si>
+  <si>
+    <t>Generation state</t>
+  </si>
+  <si>
+    <t>Baluba Center Underground Mine</t>
+  </si>
+  <si>
+    <t>Chambishi Main Mine</t>
+  </si>
+  <si>
+    <t>Chambishi West Mine</t>
+  </si>
+  <si>
+    <t>Chibuluma South Mine</t>
+  </si>
+  <si>
+    <t>Chingola Open Pit A Mine</t>
+  </si>
+  <si>
+    <t>Fitwaola Open Pit Mine</t>
+  </si>
+  <si>
+    <t>Kansanshi Mine</t>
+  </si>
+  <si>
+    <t>Konkola Mine</t>
+  </si>
+  <si>
+    <t>Luanshya North Mine</t>
+  </si>
+  <si>
+    <t>Lubambe Copper Mine</t>
+  </si>
+  <si>
+    <t>Lumwana Mine (Chimiwungo and Malundwe pits)</t>
+  </si>
+  <si>
+    <t>Mufulira Mine</t>
+  </si>
+  <si>
+    <t>Munali Nickel Mine</t>
+  </si>
+  <si>
+    <t>Nchanga Open Pit Mine</t>
+  </si>
+  <si>
+    <t>Nchanga Underground Mine</t>
+  </si>
+  <si>
+    <t>Nkana Mine (Area A- open pit), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Nkana Mine (Area E- open pit), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Nkana Mine (Central Ore Body shaft-underground), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Nkana Mine (Mindola North Ore Body shaft-underground), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Nkana Mine (Mindola- open pit), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Nkana Mine (South Ore Body shaft-underground), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Nkana Mine (Sub-Vertical Ore Body shaft-underground), southwest of Kitwe</t>
+  </si>
+  <si>
+    <t>Sentinel Mine</t>
   </si>
 </sst>
 </file>
@@ -109,10 +199,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -432,57 +520,525 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>-17.851648300000001</v>
+      </c>
+      <c r="C2">
+        <v>25.8074844</v>
+      </c>
+      <c r="D2">
+        <f>(26+4+13+170+138+20+40+7.5+150+7)*1000*1000</f>
+        <v>575500000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>-26.642877645011101</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15.1439290700957</v>
-      </c>
-      <c r="D2" s="3">
-        <v>60638666.700000003</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
+      <c r="B3">
+        <v>-16.029679999999999</v>
+      </c>
+      <c r="C3">
+        <v>28.839354100000001</v>
+      </c>
+      <c r="D3">
+        <f>(50+19+3.5+45)*1000*1000</f>
+        <v>117500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-12.336340099999999</v>
+      </c>
+      <c r="C4">
+        <v>27.762377300000001</v>
+      </c>
+      <c r="D4">
+        <f>(125+100+155.5)*1000*1000</f>
+        <v>380500000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF6A6CF-658E-4719-A51D-EC23FC95B0AE}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>-13.04861</v>
+      </c>
+      <c r="C2">
+        <v>28.338059999999999</v>
+      </c>
+      <c r="D2">
+        <v>750000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>-12.658916</v>
+      </c>
+      <c r="C3">
+        <v>28.047927000000001</v>
+      </c>
+      <c r="D3">
+        <v>1072500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>-12.657999999999999</v>
+      </c>
+      <c r="C4">
+        <v>28.103000000000002</v>
+      </c>
+      <c r="D4">
+        <v>495000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>-12.913955</v>
+      </c>
+      <c r="C5">
+        <v>28.079190999999899</v>
+      </c>
+      <c r="D5">
+        <v>300000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>-12.509245</v>
+      </c>
+      <c r="C6">
+        <v>27.909251999999999</v>
+      </c>
+      <c r="D6">
+        <v>1125000000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>-12.407088999999999</v>
+      </c>
+      <c r="C7">
+        <v>27.880268999999998</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>-12.093786</v>
+      </c>
+      <c r="C8">
+        <v>26.429832999999999</v>
+      </c>
+      <c r="D8">
+        <v>14369500000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>-12.378788999999999</v>
+      </c>
+      <c r="C9">
+        <v>27.826968000000001</v>
+      </c>
+      <c r="D9">
+        <v>1200000000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>-13.068863</v>
+      </c>
+      <c r="C10">
+        <v>28.322908999999999</v>
+      </c>
+      <c r="D10">
+        <v>2250000000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>-12.294129999999999</v>
+      </c>
+      <c r="C11">
+        <v>27.765612000000001</v>
+      </c>
+      <c r="D11">
+        <v>1250000000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>-12.230905</v>
+      </c>
+      <c r="C12">
+        <v>25.817114</v>
+      </c>
+      <c r="D12">
+        <v>10500000000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>-12.542415</v>
+      </c>
+      <c r="C13">
+        <v>28.219801</v>
+      </c>
+      <c r="D13">
+        <v>1250000000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>-15.9254459999999</v>
+      </c>
+      <c r="C14">
+        <v>28.129807</v>
+      </c>
+      <c r="D14">
+        <v>850000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>-12.536110000000001</v>
+      </c>
+      <c r="C15">
+        <v>27.833120000000001</v>
+      </c>
+      <c r="D15">
+        <v>1125000000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>-12.507612999999999</v>
+      </c>
+      <c r="C16">
+        <v>27.875482000000002</v>
+      </c>
+      <c r="D16">
+        <v>1400000000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>-12.851025999999999</v>
+      </c>
+      <c r="C17">
+        <v>28.207403999999901</v>
+      </c>
+      <c r="D17">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>-12.851025999999999</v>
+      </c>
+      <c r="C18">
+        <v>28.207403999999901</v>
+      </c>
+      <c r="D18">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>-12.805249999999999</v>
+      </c>
+      <c r="C19">
+        <v>28.185835999999998</v>
+      </c>
+      <c r="D19">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>-12.796917000000001</v>
+      </c>
+      <c r="C20">
+        <v>28.178775999999999</v>
+      </c>
+      <c r="D20">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>-12.77556</v>
+      </c>
+      <c r="C21">
+        <v>28.161052000000002</v>
+      </c>
+      <c r="D21">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>-12.854466</v>
+      </c>
+      <c r="C22">
+        <v>28.212122999999998</v>
+      </c>
+      <c r="D22">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>-12.854466</v>
+      </c>
+      <c r="C23">
+        <v>28.212122999999998</v>
+      </c>
+      <c r="D23">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>-12.256487</v>
+      </c>
+      <c r="C24">
+        <v>25.300218000000001</v>
+      </c>
+      <c r="D24">
+        <v>29434000000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Parameters/demand_parameters.xlsx
+++ b/Parameters/demand_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2859C93-1867-4D14-BDF3-EC6830255C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115370AF-5288-426F-B3CA-AA0520AE5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand centers" sheetId="2" r:id="rId1"/>
@@ -517,22 +517,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21CD761-0C02-5F48-878C-D5E4B46C4E1D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,8 +566,12 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>(26+4+13+170+138+20+40+7.5+150+7)*1000*1000</f>
+        <v>575500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -584,8 +588,12 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f>(50+19+3.5+45)*1000*1000</f>
+        <v>117500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -602,8 +610,12 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f>(125+100+155.5)*1000*1000</f>
+        <v>380500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
   </sheetData>
@@ -620,17 +632,17 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -647,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -664,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -681,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -698,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -715,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -732,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -749,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -766,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -783,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -800,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -817,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -834,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -851,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -868,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -885,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -902,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -919,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -936,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -953,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -970,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -987,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>

--- a/Parameters/demand_parameters.xlsx
+++ b/Parameters/demand_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115370AF-5288-426F-B3CA-AA0520AE5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F60641-2B2F-4807-BCB2-8FBD964380E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand centers" sheetId="2" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>117500000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <f>(50+19+3.5+45)*1000*1000</f>

--- a/Parameters/demand_parameters.xlsx
+++ b/Parameters/demand_parameters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F60641-2B2F-4807-BCB2-8FBD964380E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08643B8-467F-4311-9A5A-158B9617EDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
+    <workbookView xWindow="-28920" yWindow="-3885" windowWidth="29040" windowHeight="17640" xr2:uid="{1EFB3969-2EEE-7045-9FD0-00480E0E3DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand centers" sheetId="2" r:id="rId1"/>
-    <sheet name="Generation centers" sheetId="3" r:id="rId2"/>
+    <sheet name="old" sheetId="4" r:id="rId2"/>
+    <sheet name="Generation centers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Annual demand [kg/a]</t>
   </si>
@@ -94,9 +95,6 @@
     <t>Chingola Open Pit A Mine</t>
   </si>
   <si>
-    <t>Fitwaola Open Pit Mine</t>
-  </si>
-  <si>
     <t>Kansanshi Mine</t>
   </si>
   <si>
@@ -115,9 +113,6 @@
     <t>Mufulira Mine</t>
   </si>
   <si>
-    <t>Munali Nickel Mine</t>
-  </si>
-  <si>
     <t>Nchanga Open Pit Mine</t>
   </si>
   <si>
@@ -146,24 +141,55 @@
   </si>
   <si>
     <t>Sentinel Mine</t>
+  </si>
+  <si>
+    <t>Luanshya Slag Recovery</t>
+  </si>
+  <si>
+    <t>Chambishi Copper Smelter</t>
+  </si>
+  <si>
+    <t>Mufulira (ISASMELT) Smelter</t>
+  </si>
+  <si>
+    <t>Nchanga Copper Smelter</t>
+  </si>
+  <si>
+    <t>Bwana Mkubwa Solvent Extraction-Electrowinning Plant</t>
+  </si>
+  <si>
+    <t>Chambishi Facility</t>
+  </si>
+  <si>
+    <t>Chambishi Cobalt Plant</t>
+  </si>
+  <si>
+    <t>Kansanshi Smelter</t>
+  </si>
+  <si>
+    <t>Mufulira Refinery</t>
+  </si>
+  <si>
+    <t>Muliashi Leach Plant</t>
+  </si>
+  <si>
+    <t>Nchanga Tailings Leach Plant</t>
+  </si>
+  <si>
+    <t>Nkana Solvent Extraction Plant</t>
+  </si>
+  <si>
+    <t>Nkana Copper Refinery</t>
+  </si>
+  <si>
+    <t>Sable Copper Leach and Electrowinning Plant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,16 +221,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,22 +540,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21CD761-0C02-5F48-878C-D5E4B46C4E1D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -549,100 +572,554 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>-17.851648300000001</v>
+        <v>-12.649975999999899</v>
       </c>
       <c r="C2">
-        <v>25.8074844</v>
+        <v>28.041172999999901</v>
       </c>
       <c r="D2">
-        <f>(26+4+13+170+138+20+40+7.5+150+7)*1000*1000</f>
-        <v>575500000</v>
+        <v>125000000</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <f>(26+4+13+170+138+20+40+7.5+150+7)*1000*1000</f>
-        <v>575500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>-16.029679999999999</v>
+        <v>-12.535</v>
       </c>
       <c r="C3">
-        <v>28.839354100000001</v>
+        <v>28.234000000000002</v>
       </c>
       <c r="D3">
-        <f>(50+19+3.5+45)*1000*1000</f>
-        <v>117500000</v>
+        <v>100000000</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <f>(50+19+3.5+45)*1000*1000</f>
-        <v>117500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>-12.336340099999999</v>
+        <v>-12.530999999999899</v>
       </c>
       <c r="C4">
-        <v>27.762377300000001</v>
+        <v>27.855</v>
       </c>
       <c r="D4">
-        <f>(125+100+155.5)*1000*1000</f>
-        <v>380500000</v>
+        <v>155500000</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <f>(125+100+155.5)*1000*1000</f>
-        <v>380500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>-13.042299999999999</v>
+      </c>
+      <c r="C5">
+        <v>28.709353</v>
+      </c>
+      <c r="D5">
+        <v>26000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>-12.649975999999899</v>
+      </c>
+      <c r="C6">
+        <v>28.041172999999901</v>
+      </c>
+      <c r="D6">
+        <v>4000000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>-12.649975999999899</v>
+      </c>
+      <c r="C7">
+        <v>28.041172999999901</v>
+      </c>
+      <c r="D7">
+        <v>13500000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>-12.088361000000001</v>
+      </c>
+      <c r="C8">
+        <v>26.408977</v>
+      </c>
+      <c r="D8">
+        <v>170000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>-12.534000000000001</v>
+      </c>
+      <c r="C9">
+        <v>28.236999999999998</v>
+      </c>
+      <c r="D9">
+        <v>137500000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>-13.06861</v>
+      </c>
+      <c r="C10">
+        <v>28.32583</v>
+      </c>
+      <c r="D10">
+        <v>20000000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>-12.566381</v>
+      </c>
+      <c r="C11">
+        <v>27.814871</v>
+      </c>
+      <c r="D11">
+        <v>40000000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>-12.843</v>
+      </c>
+      <c r="C12">
+        <v>28.204999999999998</v>
+      </c>
+      <c r="D12">
+        <v>7500000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>-12.843</v>
+      </c>
+      <c r="C13">
+        <v>28.204999999999998</v>
+      </c>
+      <c r="D13">
+        <v>150000000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>-14.459279</v>
+      </c>
+      <c r="C14">
+        <v>28.436986999999998</v>
+      </c>
+      <c r="D14">
+        <v>7000000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF6A6CF-658E-4719-A51D-EC23FC95B0AE}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A7FC9B-2444-4BD5-ADFC-3032FB526B79}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A11" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>-17.851648300000001</v>
+      </c>
+      <c r="C1">
+        <v>25.8074844</v>
+      </c>
+      <c r="D1">
+        <f>(26+4+13+170+138+20+40+7.5+150+7)*1000*1000</f>
+        <v>575500000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <f>(26+4+13+170+138+20+40+7.5+150+7)*1000*1000</f>
+        <v>575500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-16.029679999999999</v>
+      </c>
+      <c r="C2">
+        <v>28.839354100000001</v>
+      </c>
+      <c r="D2">
+        <f>(50+19+3.5+45)*1000*1000</f>
+        <v>117500000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>(50+19+3.5+45)*1000*1000</f>
+        <v>117500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>-12.336340099999999</v>
+      </c>
+      <c r="C3">
+        <v>27.762377300000001</v>
+      </c>
+      <c r="D3">
+        <f>(125+100+155.5)*1000*1000</f>
+        <v>380500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f>(125+100+155.5)*1000*1000</f>
+        <v>380500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>-12.649975999999899</v>
+      </c>
+      <c r="C11">
+        <v>28.041172999999901</v>
+      </c>
+      <c r="D11">
+        <v>125000000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>-12.535</v>
+      </c>
+      <c r="C12">
+        <v>28.234000000000002</v>
+      </c>
+      <c r="D12">
+        <v>100000000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>-12.530999999999899</v>
+      </c>
+      <c r="C13">
+        <v>27.855</v>
+      </c>
+      <c r="D13">
+        <v>155500000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>-13.042299999999999</v>
+      </c>
+      <c r="C14">
+        <v>28.709353</v>
+      </c>
+      <c r="D14">
+        <v>26000000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>-12.649975999999899</v>
+      </c>
+      <c r="C15">
+        <v>28.041172999999901</v>
+      </c>
+      <c r="D15">
+        <v>4000000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>-12.649975999999899</v>
+      </c>
+      <c r="C16">
+        <v>28.041172999999901</v>
+      </c>
+      <c r="D16">
+        <v>13500000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>-12.088361000000001</v>
+      </c>
+      <c r="C17">
+        <v>26.408977</v>
+      </c>
+      <c r="D17">
+        <v>170000000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>-12.534000000000001</v>
+      </c>
+      <c r="C18">
+        <v>28.236999999999998</v>
+      </c>
+      <c r="D18">
+        <v>137500000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>-13.06861</v>
+      </c>
+      <c r="C19">
+        <v>28.32583</v>
+      </c>
+      <c r="D19">
+        <v>20000000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>-12.566381</v>
+      </c>
+      <c r="C20">
+        <v>27.814871</v>
+      </c>
+      <c r="D20">
+        <v>40000000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>-12.843</v>
+      </c>
+      <c r="C21">
+        <v>28.204999999999998</v>
+      </c>
+      <c r="D21">
+        <v>7500000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>-12.843</v>
+      </c>
+      <c r="C22">
+        <v>28.204999999999998</v>
+      </c>
+      <c r="D22">
+        <v>150000000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>-14.459279</v>
+      </c>
+      <c r="C23">
+        <v>28.436986999999998</v>
+      </c>
+      <c r="D23">
+        <v>7000000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF6A6CF-658E-4719-A51D-EC23FC95B0AE}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -659,7 +1136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -676,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -693,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -710,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -727,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -744,60 +1221,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
-        <v>-12.407088999999999</v>
+        <v>-12.093786</v>
       </c>
       <c r="C7">
-        <v>27.880268999999998</v>
+        <v>26.429832999999999</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>14369500000</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>-12.093786</v>
+        <v>-12.378788999999999</v>
       </c>
       <c r="C8">
-        <v>26.429832999999999</v>
+        <v>27.826968000000001</v>
       </c>
       <c r="D8">
-        <v>14369500000</v>
+        <v>1200000000</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>-13.068863</v>
+      </c>
+      <c r="C9">
+        <v>28.322908999999999</v>
+      </c>
+      <c r="D9">
+        <v>250000000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
-      </c>
-      <c r="B9">
-        <v>-12.378788999999999</v>
-      </c>
-      <c r="C9">
-        <v>27.826968000000001</v>
-      </c>
-      <c r="D9">
-        <v>1200000000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
       </c>
       <c r="B10">
         <v>-13.068863</v>
@@ -812,9 +1289,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>-12.294129999999999</v>
@@ -829,9 +1306,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>-12.230905</v>
@@ -846,9 +1323,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>-12.542415</v>
@@ -863,60 +1340,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>-12.536110000000001</v>
+      </c>
+      <c r="C14">
+        <v>27.833120000000001</v>
+      </c>
+      <c r="D14">
+        <v>1125000000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
-        <v>-15.9254459999999</v>
-      </c>
-      <c r="C14">
-        <v>28.129807</v>
-      </c>
-      <c r="D14">
-        <v>850000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>-12.507612999999999</v>
+      </c>
+      <c r="C15">
+        <v>27.875482000000002</v>
+      </c>
+      <c r="D15">
+        <v>1400000000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
-        <v>-12.536110000000001</v>
-      </c>
-      <c r="C15">
-        <v>27.833120000000001</v>
-      </c>
-      <c r="D15">
-        <v>1125000000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>-12.851025999999999</v>
+      </c>
+      <c r="C16">
+        <v>28.207403999999901</v>
+      </c>
+      <c r="D16">
+        <v>392857142.85714203</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>28</v>
-      </c>
-      <c r="B16">
-        <v>-12.507612999999999</v>
-      </c>
-      <c r="C16">
-        <v>27.875482000000002</v>
-      </c>
-      <c r="D16">
-        <v>1400000000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
       </c>
       <c r="B17">
         <v>-12.851025999999999</v>
@@ -931,15 +1408,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>-12.851025999999999</v>
+        <v>-12.805249999999999</v>
       </c>
       <c r="C18">
-        <v>28.207403999999901</v>
+        <v>28.185835999999998</v>
       </c>
       <c r="D18">
         <v>392857142.85714203</v>
@@ -948,15 +1425,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>-12.805249999999999</v>
+        <v>-12.796917000000001</v>
       </c>
       <c r="C19">
-        <v>28.185835999999998</v>
+        <v>28.178775999999999</v>
       </c>
       <c r="D19">
         <v>392857142.85714203</v>
@@ -965,15 +1442,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>-12.796917000000001</v>
+        <v>-12.77556</v>
       </c>
       <c r="C20">
-        <v>28.178775999999999</v>
+        <v>28.161052000000002</v>
       </c>
       <c r="D20">
         <v>392857142.85714203</v>
@@ -982,15 +1459,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>-12.77556</v>
+        <v>-12.854466</v>
       </c>
       <c r="C21">
-        <v>28.161052000000002</v>
+        <v>28.212122999999998</v>
       </c>
       <c r="D21">
         <v>392857142.85714203</v>
@@ -999,9 +1476,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>-12.854466</v>
@@ -1016,37 +1493,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>-12.854466</v>
+        <v>-12.256487</v>
       </c>
       <c r="C23">
-        <v>28.212122999999998</v>
+        <v>25.300218000000001</v>
       </c>
       <c r="D23">
-        <v>392857142.85714203</v>
+        <v>29434000000</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <v>-12.256487</v>
-      </c>
-      <c r="C24">
-        <v>25.300218000000001</v>
-      </c>
-      <c r="D24">
-        <v>29434000000</v>
-      </c>
-      <c r="E24" t="s">
         <v>10</v>
       </c>
     </row>
